--- a/documents/外部設計/外部設計書_ログインページ.xlsx
+++ b/documents/外部設計/外部設計書_ログインページ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DF7C2B-EFE0-46B5-A366-ACC5DA4F764A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCA0A10-A60E-4A01-8F62-2010F2FAF42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -731,6 +731,26 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>「7, 添付ファイル」</t>
+    <rPh sb="4" eb="6">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>添付ファイルの追加・参照ができる。</t>
+    <rPh sb="0" eb="2">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1158,26 +1178,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1212,9 +1214,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1233,8 +1232,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2047,15 +2067,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>163284</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:colOff>73637</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>164087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>244927</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:colOff>155280</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2070,8 +2090,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="979713" y="2136322"/>
-          <a:ext cx="9062357" cy="5129893"/>
+          <a:off x="914078" y="2069087"/>
+          <a:ext cx="9718702" cy="5129893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3179,13 +3199,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>53067</xdr:colOff>
+      <xdr:colOff>43542</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>149432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>135576</xdr:colOff>
+      <xdr:colOff>126051</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>2476500</xdr:rowOff>
     </xdr:to>
@@ -3202,8 +3222,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="869496" y="1863932"/>
-          <a:ext cx="9471437" cy="7661068"/>
+          <a:off x="872217" y="1863932"/>
+          <a:ext cx="9597984" cy="7661068"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3584,13 +3604,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>669468</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
+      <xdr:rowOff>68038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>136073</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3605,8 +3625,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485897" y="5021037"/>
-          <a:ext cx="3467103" cy="1592036"/>
+          <a:off x="1498143" y="5021038"/>
+          <a:ext cx="3512007" cy="1113062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3649,13 +3669,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>13608</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:rowOff>88447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>183697</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3670,8 +3690,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1510394" y="4708072"/>
-          <a:ext cx="1115784" cy="285750"/>
+          <a:off x="1518558" y="4660447"/>
+          <a:ext cx="1132113" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3716,16 +3736,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>100694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>122464</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:colOff>151039</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3740,8 +3760,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1483179" y="5034643"/>
-          <a:ext cx="3401785" cy="1551214"/>
+          <a:off x="1524000" y="5053694"/>
+          <a:ext cx="3446689" cy="1032781"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3925,16 +3945,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>29938</xdr:rowOff>
+      <xdr:rowOff>172813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6805</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3949,8 +3969,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4914900" y="6316438"/>
-          <a:ext cx="732064" cy="214992"/>
+          <a:off x="4791075" y="6459313"/>
+          <a:ext cx="744310" cy="214992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4835,6 +4855,283 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>80284</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>59870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF7074E-DC57-4F0B-A960-1DAB19964A16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4623709" y="3869870"/>
+          <a:ext cx="938892" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>添付ファイル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>224517</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A0633F-88F8-4315-B3A3-C492FCB3D3E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4657725" y="6177642"/>
+          <a:ext cx="938892" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>添付ファイル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>102055</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1578427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>212272</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1864177</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0823C893-DDF7-46B0-A45C-B8F7981C3308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4645480" y="8626927"/>
+          <a:ext cx="938892" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>添付ファイル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>261258</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="300717" cy="316931"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26DDC25B-509A-4CDE-9B5D-24685DB5239D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5357133" y="3533774"/>
+          <a:ext cx="300717" cy="316931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5161,7 +5458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
@@ -5171,146 +5468,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="38"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -9647,8 +9944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5949A1-8B95-4D70-B4DD-69A3B154C943}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9659,146 +9956,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="38"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -11642,7 +11939,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="10"/>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E52" s="9" t="s">
@@ -14115,6 +14412,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -14122,14 +14426,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14145,8 +14442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6004294-4002-4A39-8BA4-A6BAA901B5F2}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14157,146 +14454,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="38"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -16918,7 +17215,9 @@
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
+      <c r="D70" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -16960,7 +17259,9 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="D71" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -18618,6 +18919,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -18625,14 +18933,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
